--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -631,7 +631,7 @@
         <xdr:cNvPr id="12" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBF0795-3B39-4171-86F6-1655FCB81456}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACBF0795-3B39-4171-86F6-1655FCB81456}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -652,7 +652,7 @@
           <xdr:cNvPr id="13" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C837C4-6A1A-4D69-B31D-74ABEF982BF2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80C837C4-6A1A-4D69-B31D-74ABEF982BF2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -705,7 +705,7 @@
           <xdr:cNvPr id="14" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF9A715-8D7E-4CB3-8300-C553D088B5DC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBF9A715-8D7E-4CB3-8300-C553D088B5DC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6182,7 +6182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
